--- a/notebooks/resume_data.xlsx
+++ b/notebooks/resume_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,145 +448,493 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>personal_info</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROFILE</t>
+          <t>Praveen Tak</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCEFeb 2025 – Apr 2025	Project Trainee – Defence Research and Development Organisation (DRDO)					 Jodhpur, India
-Domain: Machine Learning | Computer Vision | Deep LearningKey Responsibilities &amp; Learnings:Worked on the project “Painting Generation using CycleGANs” exploring advanced concepts in image-to-image translation using Generative Adversarial Networks.Implemented neural network models using Python, TensorFlow/PyTorch, and other ML libraries.Performed data preprocessing, augmentation, and evaluation of generated outputs.</t>
+          <t>9462096002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>projects</t>
+          <t>email</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROJECTSJan 2025  Feb 2025	Mushroom Classification — Machine Learning</t>
+          <t>praveentak715@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>personal_info</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aug 2023  Jan 2025	Full Stack Data Science Pro — PW SkillsOct 2024	Codemathon 2024 — Department of Mathematics, NIT KurukshetraFeb 2024  Feb 2024	Python Stack — Great LearningOct 2023  Oct 2023	Python for Data Science — UdemyMay 2023	Learn Python &amp; Machine Learning — Microsoft Learn Student Ambassador, Google Developer Student ClubsMar 2023	Cloud Technical Series — Google</t>
+          <t>PROFILE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EXTRA-CURRICULAR ACTIVITIESPoster Making Competition Winner – National Mathematics DayActive participant in coding competitions and hackathonsCalligraphy Competition Winner  APS Session 2021-22National Reading (English)  APS Session 2021-22</t>
+          <t>WORK EXPERIENCE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EDUCATIONSep 2022 – Jul 2025 	Bachelor of Science (PMCS), Lachoo Memorial    	          84.50% of College Science &amp; Technology, JodhpurMay 2021 – Jul 2022 	XII (Science), Army Public School, Jodhpur 		          85.00%Apr 2019 – Apr 2020 	X, Army Public School, Jodhpur		                       87.83%</t>
+          <t>Feb 2025 – Apr 2025	Project Trainee – Defence Research and Development Organisation (DRDO)					 Jodhpur, India
+Domain: Machine Learning | Computer Vision | Deep Learning</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>languages</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Programming Languages: Python, Java, SQL, C, C++Machine Learning &amp; Data Analysis: Scikit-learn, TensorFlow, Pandas, NumPy, MatplotlibWeb Development: Flask, FastAPI, HTML, CSSTools: Power BI, Excel</t>
+          <t>Key Responsibilities &amp; Learnings:</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>certifications</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COURSES &amp; CERTIFICATESJun 2025  Jun 2025	Microsoft Power BI — Infosys SpringboardJun 2025 	FinQuest — Department of Finance Studies, University of DelhiJun 2025	Central India Hackathon 2.0 — Unstop</t>
+          <t>Worked on the project “Painting Generation using CycleGANs” exploring advanced concepts in image-to-image translation using Generative Adversarial Networks.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>achievements</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ACHIEVEMENTSFinalist, Central India Hackathon 2.0Honours in B.Sc.Winner, Hourly Problem (Sandhnaam 2025)Runner-Up, Overnight Problem (Sandhnaam 2025)Winner, MiniHackathon 2024</t>
+          <t>Implemented neural network models using Python, TensorFlow/PyTorch, and other ML libraries.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Praveen Tak</t>
+          <t>Performed data preprocessing, augmentation, and evaluation of generated outputs.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9462096002</t>
+          <t>PROJECTS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>praveentak715@gmail.com</t>
+          <t>Jan 2025  Feb 2025	Mushroom Classification — Machine Learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aug 2023  Jan 2025	Full Stack Data Science Pro — PW Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oct 2024	Codemathon 2024 — Department of Mathematics, NIT Kurukshetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Feb 2024  Feb 2024	Python Stack — Great Learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oct 2023  Oct 2023	Python for Data Science — Udemy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>May 2023	Learn Python &amp; Machine Learning — Microsoft Learn Student Ambassador, Google Developer Student Clubs</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mar 2023	Cloud Technical Series — Google</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EXTRA-CURRICULAR ACTIVITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Poster Making Competition Winner – National Mathematics Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Active participant in coding competitions and hackathons</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Calligraphy Competition Winner  APS Session 2021-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>National Reading (English)  APS Session 2021-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EDUCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sep 2022 – Jul 2025 	Bachelor of Science (PMCS), Lachoo Memorial    	          84.50% of College Science &amp; Technology, Jodhpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>May 2021 – Jul 2022 	XII (Science), Army Public School, Jodhpur 		          85.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Apr 2019 – Apr 2020 	X, Army Public School, Jodhpur		                       87.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>languages</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Programming Languages: Python, Java, SQL, C, C++</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>languages</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Machine Learning &amp; Data Analysis: Scikit-learn, TensorFlow, Pandas, NumPy, Matplotlib</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>languages</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Web Development: Flask, FastAPI, HTML, CSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>languages</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Tools: Power BI, Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>certifications</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>COURSES &amp; CERTIFICATES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>certifications</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Jun 2025  Jun 2025	Microsoft Power BI — Infosys Springboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>certifications</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Jun 2025 	FinQuest — Department of Finance Studies, University of Delhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>certifications</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Jun 2025	Central India Hackathon 2.0 — Unstop</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ACHIEVEMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Finalist, Central India Hackathon 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Honours in B.Sc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Winner, Hourly Problem (Sandhnaam 2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Runner-Up, Overnight Problem (Sandhnaam 2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Winner, MiniHackathon 2024</t>
         </is>
       </c>
     </row>

--- a/notebooks/resume_data.xlsx
+++ b/notebooks/resume_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,24 +484,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>personal_info</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PROFILE</t>
-        </is>
-      </c>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>personal_info</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE</t>
+          <t>PROFILE</t>
         </is>
       </c>
     </row>
@@ -513,428 +509,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 2025 – Apr 2025	Project Trainee – Defence Research and Development Organisation (DRDO)					 Jodhpur, India
-Domain: Machine Learning | Computer Vision | Deep Learning</t>
+          <t>WORK EXPERIENCEFeb 2025 – Apr 2025	Project Trainee – Defence Research and Development Organisation (DRDO)					 Jodhpur, India
+Domain: Machine Learning | Computer Vision | Deep LearningKey Responsibilities &amp; Learnings:Worked on the project “Painting Generation using CycleGANs” exploring advanced concepts in image-to-image translation using Generative Adversarial Networks.Implemented neural network models using Python, TensorFlow/PyTorch, and other ML libraries.Performed data preprocessing, augmentation, and evaluation of generated outputs.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Key Responsibilities &amp; Learnings:</t>
+          <t>PROJECTSJan 2025  Feb 2025	Mushroom Classification — Machine Learning</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Worked on the project “Painting Generation using CycleGANs” exploring advanced concepts in image-to-image translation using Generative Adversarial Networks.</t>
+          <t>Aug 2023  Jan 2025	Full Stack Data Science Pro — PW SkillsOct 2024	Codemathon 2024 — Department of Mathematics, NIT KurukshetraFeb 2024  Feb 2024	Python Stack — Great LearningOct 2023  Oct 2023	Python for Data Science — UdemyMay 2023	Learn Python &amp; Machine Learning — Microsoft Learn Student Ambassador, Google Developer Student ClubsMar 2023	Cloud Technical Series — Google</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Implemented neural network models using Python, TensorFlow/PyTorch, and other ML libraries.</t>
+          <t>EXTRA-CURRICULAR ACTIVITIESPoster Making Competition Winner – National Mathematics DayActive participant in coding competitions and hackathonsCalligraphy Competition Winner  APS Session 2021-22National Reading (English)  APS Session 2021-22</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Performed data preprocessing, augmentation, and evaluation of generated outputs.</t>
+          <t>EDUCATIONSep 2022 – Jul 2025 	Bachelor of Science (PMCS), Lachoo Memorial    	          84.50% of College Science &amp; Technology, JodhpurMay 2021 – Jul 2022 	XII (Science), Army Public School, Jodhpur 		          85.00%Apr 2019 – Apr 2020 	X, Army Public School, Jodhpur		                       87.83%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>projects</t>
+          <t>languages</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROJECTS</t>
+          <t>Programming Languages: Python, Java, SQL, C, C++Machine Learning &amp; Data Analysis: Scikit-learn, TensorFlow, Pandas, NumPy, MatplotlibWeb Development: Flask, FastAPI, HTML, CSSTools: Power BI, Excel</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>projects</t>
+          <t>certifications</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jan 2025  Feb 2025	Mushroom Classification — Machine Learning</t>
+          <t>COURSES &amp; CERTIFICATESJun 2025  Jun 2025	Microsoft Power BI — Infosys SpringboardJun 2025 	FinQuest — Department of Finance Studies, University of DelhiJun 2025	Central India Hackathon 2.0 — Unstop</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>achievements</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aug 2023  Jan 2025	Full Stack Data Science Pro — PW Skills</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Oct 2024	Codemathon 2024 — Department of Mathematics, NIT Kurukshetra</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Feb 2024  Feb 2024	Python Stack — Great Learning</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Oct 2023  Oct 2023	Python for Data Science — Udemy</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>May 2023	Learn Python &amp; Machine Learning — Microsoft Learn Student Ambassador, Google Developer Student Clubs</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Mar 2023	Cloud Technical Series — Google</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>EXTRA-CURRICULAR ACTIVITIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Poster Making Competition Winner – National Mathematics Day</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Active participant in coding competitions and hackathons</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Calligraphy Competition Winner  APS Session 2021-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>National Reading (English)  APS Session 2021-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>EDUCATION</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sep 2022 – Jul 2025 	Bachelor of Science (PMCS), Lachoo Memorial    	          84.50% of College Science &amp; Technology, Jodhpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>May 2021 – Jul 2022 	XII (Science), Army Public School, Jodhpur 		          85.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Apr 2019 – Apr 2020 	X, Army Public School, Jodhpur		                       87.83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>languages</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Programming Languages: Python, Java, SQL, C, C++</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>languages</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Machine Learning &amp; Data Analysis: Scikit-learn, TensorFlow, Pandas, NumPy, Matplotlib</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>languages</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Web Development: Flask, FastAPI, HTML, CSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>languages</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Tools: Power BI, Excel</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>certifications</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>COURSES &amp; CERTIFICATES</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>certifications</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Jun 2025  Jun 2025	Microsoft Power BI — Infosys Springboard</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>certifications</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Jun 2025 	FinQuest — Department of Finance Studies, University of Delhi</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>certifications</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Jun 2025	Central India Hackathon 2.0 — Unstop</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ACHIEVEMENTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Finalist, Central India Hackathon 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Honours in B.Sc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Winner, Hourly Problem (Sandhnaam 2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Runner-Up, Overnight Problem (Sandhnaam 2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Winner, MiniHackathon 2024</t>
+          <t>ACHIEVEMENTSFinalist, Central India Hackathon 2.0Honours in B.Sc.Winner, Hourly Problem (Sandhnaam 2025)Runner-Up, Overnight Problem (Sandhnaam 2025)Winner, MiniHackathon 2024</t>
         </is>
       </c>
     </row>
